--- a/lab1/Рабочие файлы/Таблицы Егоров Мелехин.xlsx
+++ b/lab1/Рабочие файлы/Таблицы Егоров Мелехин.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\MUCTR\MUCTR-ElTech\lab1\Рабочие файлы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D945DB10-FA8F-4B7B-8FFE-9A16EC21C994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51389FE-81F5-4C72-8024-E30B21BB275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="8595" windowWidth="13575" windowHeight="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1460,18 +1472,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1691,6 +1691,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Сопротивление, Ом</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1753,6 +1813,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Потенциал, В</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1957,13 +2077,13 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,13 +2098,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-60.5</c:v>
+                  <c:v>-59.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.88</c:v>
+                  <c:v>8.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>55.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>77</c:v>
@@ -2034,6 +2154,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Сопротивление, Ом</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2096,6 +2276,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Потенциал, В</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2145,6 +2385,588 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Идеальные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> и реальные ЭДС</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Идельные ЭДС</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$Y$6:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$Z$6:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A406-4A5C-82F8-FD3FB119AF94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Реальные ЭДС</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$AE$6:$AE$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$AF$6:$AF$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-59.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A406-4A5C-82F8-FD3FB119AF94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="742171728"/>
+        <c:axId val="742169648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="742171728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Сопротивление, Ом</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742169648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="742169648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Потенциал,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> В</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742171728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2262,6 +3084,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2779,6 +3641,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3390,15 +4768,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3441,7 +4819,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F48D26-F5D5-443E-AE89-BA95DB718BE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3465,6 +4843,44 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3793,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:H48"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3836,38 +5252,38 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
-      <c r="W4" s="69" t="s">
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="W4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="70" t="s">
+      <c r="X4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="71" t="s">
+      <c r="Y4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="Z4" s="71" t="s">
+      <c r="Z4" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="69" t="s">
+      <c r="AC4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="AD4" s="70" t="s">
+      <c r="AD4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AE4" s="71" t="s">
+      <c r="AE4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="AF4" s="71" t="s">
+      <c r="AF4" s="46" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3896,20 +5312,20 @@
       <c r="J5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="71" t="s">
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="Z5" s="71" t="s">
+      <c r="Z5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="71" t="s">
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="AF5" s="71" t="s">
+      <c r="AF5" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4002,7 +5418,7 @@
         <v>30</v>
       </c>
       <c r="AF7" s="43">
-        <v>-60.5</v>
+        <v>-59.8</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -4026,7 +5442,7 @@
         <v>52</v>
       </c>
       <c r="AF8" s="43">
-        <v>7.88</v>
+        <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4050,34 +5466,34 @@
       </c>
       <c r="AD9" s="36"/>
       <c r="AE9" s="43">
-        <f>AE8+16</f>
-        <v>68</v>
+        <f>AE8+15</f>
+        <v>67</v>
       </c>
       <c r="AF9" s="43">
-        <v>56</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="67"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="71"/>
       <c r="W10" s="35">
         <v>5</v>
       </c>
@@ -4095,7 +5511,7 @@
       <c r="AD10" s="36"/>
       <c r="AE10" s="43">
         <f>AE9+7</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF10" s="43">
         <v>77</v>
@@ -4166,7 +5582,7 @@
       <c r="AD11" s="36"/>
       <c r="AE11" s="43">
         <f>AE10</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF11" s="43">
         <v>0</v>
@@ -4307,33 +5723,33 @@
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="50" t="s">
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="M16" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="20" t="s">
         <v>94</v>
       </c>
@@ -4364,18 +5780,18 @@
       <c r="K17" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="68" t="s">
+      <c r="M17" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
     </row>
     <row r="18" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="20" t="s">
         <v>32</v>
       </c>
@@ -4875,16 +6291,16 @@
       <c r="AC29" s="33"/>
     </row>
     <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="24">
         <f>MAX(I19:I29)</f>
         <v>871.11343680709524</v>
@@ -4899,16 +6315,16 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="24">
         <f>AVERAGE(I19:I29)</f>
         <v>148.78340904082586</v>
@@ -4933,30 +6349,30 @@
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="50" t="s">
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53" t="s">
+      <c r="G34" s="55"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="20" t="s">
         <v>97</v>
       </c>
@@ -4989,7 +6405,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="20" t="s">
         <v>33</v>
       </c>
@@ -5451,16 +6867,16 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
       <c r="I48" s="24">
         <f>MAX(I37:I47)</f>
         <v>494.15533306089088</v>
@@ -5475,16 +6891,16 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53"/>
       <c r="I49" s="24">
         <f>AVERAGE(I37:I47)</f>
         <v>263.30481628055861</v>
@@ -5580,10 +6996,10 @@
         <v>68</v>
       </c>
       <c r="F64" s="44"/>
-      <c r="K64" s="46" t="s">
+      <c r="K64" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="L64" s="46"/>
+      <c r="L64" s="47"/>
       <c r="P64" t="s">
         <v>83</v>
       </c>
@@ -5773,10 +7189,10 @@
         <v>30</v>
       </c>
       <c r="F69" s="44"/>
-      <c r="K69" s="46" t="s">
+      <c r="K69" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="L69" s="46"/>
+      <c r="L69" s="47"/>
       <c r="P69">
         <v>0</v>
       </c>
